--- a/data/trans_orig/P05A03-Dificultad-trans_orig.xlsx
+++ b/data/trans_orig/P05A03-Dificultad-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>450848</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>429464</v>
+        <v>429832</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>469257</v>
+        <v>470042</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.7800673159735519</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.7430687585695782</v>
+        <v>0.7437048213300782</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.8119195407895224</v>
+        <v>0.8132781428832692</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>704</v>
@@ -765,19 +765,19 @@
         <v>729523</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>704650</v>
+        <v>702478</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>753612</v>
+        <v>752348</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.7944514399796221</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.7673652469386766</v>
+        <v>0.7650003533537678</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.820685437276063</v>
+        <v>0.8193088001373066</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>1146</v>
@@ -786,19 +786,19 @@
         <v>1180370</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>1149064</v>
+        <v>1144930</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>1212247</v>
+        <v>1211617</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.7888951843151861</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.7679719977896324</v>
+        <v>0.7652090015365667</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.8101996887148492</v>
+        <v>0.8097786322664712</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>105430</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>87329</v>
+        <v>87907</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>124948</v>
+        <v>124503</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.182418205652851</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.1510995335072292</v>
+        <v>0.1520979863314094</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.2161872784031649</v>
+        <v>0.2154172976835657</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>149</v>
@@ -836,19 +836,19 @@
         <v>158800</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>137494</v>
+        <v>135655</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>182328</v>
+        <v>182416</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.1729331572170488</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.1497315269411605</v>
+        <v>0.1477290926874347</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.1985560320930803</v>
+        <v>0.1986511812482068</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>254</v>
@@ -857,19 +857,19 @@
         <v>264230</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>234181</v>
+        <v>234639</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>292785</v>
+        <v>295366</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.1765970128732317</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.1565137880599754</v>
+        <v>0.1568196107684029</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.1956817567523346</v>
+        <v>0.1974063504994384</v>
       </c>
     </row>
     <row r="6">
@@ -886,19 +886,19 @@
         <v>21682</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>14004</v>
+        <v>13564</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>32257</v>
+        <v>32503</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.03751447837359701</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.02423025542682298</v>
+        <v>0.02346823742666938</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.0558120796818475</v>
+        <v>0.05623712485104331</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>28</v>
@@ -907,19 +907,19 @@
         <v>29950</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>20276</v>
+        <v>19960</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>43015</v>
+        <v>42966</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.03261540280332905</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.02208010250066699</v>
+        <v>0.02173685571678188</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.04684297672290596</v>
+        <v>0.04679006568262432</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>49</v>
@@ -928,19 +928,19 @@
         <v>51632</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>37710</v>
+        <v>37758</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>67569</v>
+        <v>66922</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.03450780281158221</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.02520303842606946</v>
+        <v>0.02523519856349464</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.04515922471841116</v>
+        <v>0.04472728682015517</v>
       </c>
     </row>
     <row r="7">
@@ -1032,19 +1032,19 @@
         <v>878197</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>853946</v>
+        <v>852065</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>903307</v>
+        <v>902036</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.8196757285978914</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.7970402387060246</v>
+        <v>0.7952849430898996</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.8431120123777803</v>
+        <v>0.8419255052401663</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>834</v>
@@ -1053,19 +1053,19 @@
         <v>856151</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>830411</v>
+        <v>830994</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>880482</v>
+        <v>879461</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.8152859525146852</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.7907750619684722</v>
+        <v>0.7913299663478087</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.8384564568031627</v>
+        <v>0.8374835805414528</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1691</v>
@@ -1074,19 +1074,19 @@
         <v>1734348</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1696943</v>
+        <v>1695972</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1766806</v>
+        <v>1771044</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.8175028498508387</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.7998719178316538</v>
+        <v>0.7994140768287101</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.8328021651785744</v>
+        <v>0.8347999927968868</v>
       </c>
     </row>
     <row r="9">
@@ -1103,19 +1103,19 @@
         <v>161428</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>137445</v>
+        <v>140849</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>184297</v>
+        <v>187662</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.1506708498828884</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.128285949524095</v>
+        <v>0.1314631156693906</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.1720155481878041</v>
+        <v>0.1751562461272</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>161</v>
@@ -1124,19 +1124,19 @@
         <v>167168</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>145135</v>
+        <v>146707</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>191471</v>
+        <v>193194</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.1591891081015681</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.1382071819443099</v>
+        <v>0.1397042034046303</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.1823322265256542</v>
+        <v>0.1839730412270658</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>322</v>
@@ -1145,19 +1145,19 @@
         <v>328596</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>297365</v>
+        <v>296181</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>363730</v>
+        <v>363631</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.1548872704689146</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.1401662457959516</v>
+        <v>0.1396081341042857</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.1714477654761438</v>
+        <v>0.1714014649587146</v>
       </c>
     </row>
     <row r="10">
@@ -1174,19 +1174,19 @@
         <v>31771</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>21982</v>
+        <v>21502</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>44626</v>
+        <v>46045</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.02965342151922012</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.02051707366571042</v>
+        <v>0.02006916227922874</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.04165210705483059</v>
+        <v>0.04297682819562403</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>26</v>
@@ -1195,19 +1195,19 @@
         <v>26804</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>17504</v>
+        <v>18722</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>38513</v>
+        <v>39513</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.02552493938374682</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.01666813281652792</v>
+        <v>0.01782849926705153</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.0366750232876133</v>
+        <v>0.03762660097591991</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>58</v>
@@ -1216,19 +1216,19 @@
         <v>58575</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>44300</v>
+        <v>44899</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>75608</v>
+        <v>75587</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.02760987968024672</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.02088109998818607</v>
+        <v>0.02116377034320308</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.03563844233671146</v>
+        <v>0.03562881104778649</v>
       </c>
     </row>
     <row r="11">
@@ -1320,19 +1320,19 @@
         <v>961973</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>938472</v>
+        <v>939629</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>982869</v>
+        <v>987274</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.863023543630463</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.8419406369916921</v>
+        <v>0.8429781983739205</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.8817709181091646</v>
+        <v>0.8857220992019418</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>852</v>
@@ -1341,19 +1341,19 @@
         <v>858801</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>837556</v>
+        <v>837148</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>881915</v>
+        <v>878945</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.8668174125697068</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.8453739049096627</v>
+        <v>0.8449627010907635</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.890146964728657</v>
+        <v>0.8871494823646486</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>1799</v>
@@ -1362,19 +1362,19 @@
         <v>1820773</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>1790530</v>
+        <v>1785724</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>1851891</v>
+        <v>1848439</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.8648088446410805</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.8504445617224474</v>
+        <v>0.8481618048448121</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.8795887371460714</v>
+        <v>0.8779491877832021</v>
       </c>
     </row>
     <row r="13">
@@ -1391,19 +1391,19 @@
         <v>132190</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>112810</v>
+        <v>109941</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>155537</v>
+        <v>154759</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1185932164960164</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1012060781142771</v>
+        <v>0.09863280786073333</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1395384988024006</v>
+        <v>0.1388403877707758</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>100</v>
@@ -1412,19 +1412,19 @@
         <v>103862</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>84153</v>
+        <v>85009</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>123974</v>
+        <v>123118</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1048312780046023</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.08493810157112548</v>
+        <v>0.08580262693168653</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1251311467954978</v>
+        <v>0.1242671801996247</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>229</v>
@@ -1433,19 +1433,19 @@
         <v>236052</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>209808</v>
+        <v>208981</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>265363</v>
+        <v>268481</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1121171881749973</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.09965230346095084</v>
+        <v>0.0992591446848355</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1260391261186172</v>
+        <v>0.1275197290127918</v>
       </c>
     </row>
     <row r="14">
@@ -1462,19 +1462,19 @@
         <v>20491</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>12927</v>
+        <v>12719</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>30625</v>
+        <v>31767</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.01838323987352064</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.01159745238751927</v>
+        <v>0.01141050561985318</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.02747460870347729</v>
+        <v>0.02849919633861615</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>27</v>
@@ -1483,19 +1483,19 @@
         <v>28089</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>18069</v>
+        <v>19042</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>40225</v>
+        <v>39509</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.02835130942569081</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.0182380548534429</v>
+        <v>0.01921940514682571</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.04060066862659311</v>
+        <v>0.03987776878320015</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>47</v>
@@ -1504,19 +1504,19 @@
         <v>48580</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>36271</v>
+        <v>36543</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>64297</v>
+        <v>65051</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.02307396718392221</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.01722771567066719</v>
+        <v>0.01735691629807001</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.03053881197902797</v>
+        <v>0.03089738074917839</v>
       </c>
     </row>
     <row r="15">
@@ -1608,19 +1608,19 @@
         <v>359239</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>341805</v>
+        <v>341710</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>373898</v>
+        <v>375058</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.8143037671625185</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.7747850089208466</v>
+        <v>0.7745701601068664</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.8475307315943322</v>
+        <v>0.8501618628508848</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>266</v>
@@ -1629,19 +1629,19 @@
         <v>265321</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>249751</v>
+        <v>249336</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>280202</v>
+        <v>279985</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.7848039389491701</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.7387484307291996</v>
+        <v>0.7375204136244756</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.8288204586609955</v>
+        <v>0.8281791508918307</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>618</v>
@@ -1650,19 +1650,19 @@
         <v>624560</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>601280</v>
+        <v>599991</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>645884</v>
+        <v>647069</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.8015051755285325</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.7716301026991609</v>
+        <v>0.7699755579667877</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.8288701509899664</v>
+        <v>0.8303912590039173</v>
       </c>
     </row>
     <row r="17">
@@ -1679,19 +1679,19 @@
         <v>67143</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>53433</v>
+        <v>53385</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>84845</v>
+        <v>84098</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.1521963259068196</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.1211198715650926</v>
+        <v>0.1210108361546656</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1923219581666273</v>
+        <v>0.1906293356405042</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>60</v>
@@ -1700,19 +1700,19 @@
         <v>62476</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>48134</v>
+        <v>48379</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>76875</v>
+        <v>77035</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.1848002106135547</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.1423767968102694</v>
+        <v>0.1431030634650897</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.2273905063103304</v>
+        <v>0.2278661447476651</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>124</v>
@@ -1721,19 +1721,19 @@
         <v>129619</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>109185</v>
+        <v>108289</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>149608</v>
+        <v>152463</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.1663416220429594</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.1401188021266467</v>
+        <v>0.1389688327825961</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.1919936307435377</v>
+        <v>0.1956580151001671</v>
       </c>
     </row>
     <row r="18">
@@ -1750,19 +1750,19 @@
         <v>14779</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>8423</v>
+        <v>8306</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>24017</v>
+        <v>23837</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.03349990693066185</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.01909207462636865</v>
+        <v>0.01882689403904378</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.05444044484774826</v>
+        <v>0.05403289647821078</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>10</v>
@@ -1771,19 +1771,19 @@
         <v>10276</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>5190</v>
+        <v>5074</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>18323</v>
+        <v>17547</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.03039585043727517</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.01535123300441378</v>
+        <v>0.01500852982145396</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.05419753055810941</v>
+        <v>0.05190234953557936</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>24</v>
@@ -1792,19 +1792,19 @@
         <v>25055</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>16576</v>
+        <v>16173</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>36000</v>
+        <v>36699</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.03215320242850809</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.02127221063284273</v>
+        <v>0.02075548790243346</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.04619931130536108</v>
+        <v>0.04709598362746122</v>
       </c>
     </row>
     <row r="19">
@@ -1896,19 +1896,19 @@
         <v>2650257</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>2605228</v>
+        <v>2600864</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>2689058</v>
+        <v>2692071</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.8268690480201217</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.8128202244611684</v>
+        <v>0.8114586886341283</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.8389748555261359</v>
+        <v>0.8399150695977402</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>2656</v>
@@ -1917,19 +1917,19 @@
         <v>2709795</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>2666235</v>
+        <v>2666770</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>2755870</v>
+        <v>2751596</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.8218423809836805</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.808631142901272</v>
+        <v>0.8087936088445375</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.8358162820348187</v>
+        <v>0.8345199411774574</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>5254</v>
@@ -1938,19 +1938,19 @@
         <v>5360052</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>5294283</v>
+        <v>5298575</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>5418114</v>
+        <v>5420494</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.8243201353103928</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.8142055895197441</v>
+        <v>0.8148655713121602</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.8332495540746451</v>
+        <v>0.8336154536820801</v>
       </c>
     </row>
     <row r="21">
@@ -1967,19 +1967,19 @@
         <v>466192</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>426264</v>
+        <v>423815</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>507581</v>
+        <v>506642</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.1454499848188961</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.1329924903768242</v>
+        <v>0.1322286157072889</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.1583632375193691</v>
+        <v>0.1580702115542519</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>470</v>
@@ -1988,19 +1988,19 @@
         <v>492306</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>447563</v>
+        <v>449973</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>533306</v>
+        <v>530494</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.1493092947685496</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.1357395144039437</v>
+        <v>0.1364704220175296</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.1617442456152936</v>
+        <v>0.16089133344549</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>929</v>
@@ -2009,19 +2009,19 @@
         <v>958498</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>907379</v>
+        <v>902365</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>1019069</v>
+        <v>1014439</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.1474069563290718</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.1395454151769004</v>
+        <v>0.1387742714536069</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.1567222674453595</v>
+        <v>0.1560101699976397</v>
       </c>
     </row>
     <row r="22">
@@ -2038,19 +2038,19 @@
         <v>88722</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>71049</v>
+        <v>72270</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>107459</v>
+        <v>109754</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.02768096716098221</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.0221668687316066</v>
+        <v>0.02254797099580112</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.03352690176444148</v>
+        <v>0.03424272157545236</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>91</v>
@@ -2059,19 +2059,19 @@
         <v>95119</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>78125</v>
+        <v>78172</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>115996</v>
+        <v>115318</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.02884832424776993</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.02369434503288653</v>
+        <v>0.02370842149518402</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.03517981604483099</v>
+        <v>0.03497421871724796</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>178</v>
@@ -2080,19 +2080,19 @@
         <v>183842</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>157158</v>
+        <v>159063</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>213974</v>
+        <v>210891</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.02827290836053535</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.02416931273378537</v>
+        <v>0.0244622559044403</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.03290702671562192</v>
+        <v>0.03243285376765132</v>
       </c>
     </row>
     <row r="23">
@@ -2424,19 +2424,19 @@
         <v>856285</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>829823</v>
+        <v>830219</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>880646</v>
+        <v>878969</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.825897324604304</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.8003747603355241</v>
+        <v>0.8007572185907363</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.8493943034569715</v>
+        <v>0.8477763803621949</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>862</v>
@@ -2445,19 +2445,19 @@
         <v>933143</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>905837</v>
+        <v>906450</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>958242</v>
+        <v>956547</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.8403419639276418</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.8157519350863801</v>
+        <v>0.8163037378832678</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.8629453134349366</v>
+        <v>0.8614184998170195</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>1665</v>
@@ -2466,19 +2466,19 @@
         <v>1789427</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>1750229</v>
+        <v>1750691</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>1824229</v>
+        <v>1824204</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.833367334705738</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.8151119823163644</v>
+        <v>0.8153274423439659</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.8495752466004272</v>
+        <v>0.8495633071925859</v>
       </c>
     </row>
     <row r="5">
@@ -2495,19 +2495,19 @@
         <v>135819</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>113540</v>
+        <v>114559</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>159077</v>
+        <v>157473</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.1309995730205002</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.109510862823737</v>
+        <v>0.1104937401304773</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1534319040542589</v>
+        <v>0.1518843387910124</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>130</v>
@@ -2516,19 +2516,19 @@
         <v>144511</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>121808</v>
+        <v>121880</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>170999</v>
+        <v>168259</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.1301396048771567</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.1096939980298513</v>
+        <v>0.109758762649483</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.1539936276998837</v>
+        <v>0.1515258064222907</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>258</v>
@@ -2537,19 +2537,19 @@
         <v>280331</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>247573</v>
+        <v>248800</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>314005</v>
+        <v>316445</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.1305548425863308</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.1152988696584535</v>
+        <v>0.1158704878517289</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.1462377042672703</v>
+        <v>0.1473740181257035</v>
       </c>
     </row>
     <row r="6">
@@ -2566,19 +2566,19 @@
         <v>44689</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>31611</v>
+        <v>32265</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>59900</v>
+        <v>62324</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.04310310237519583</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.03048955313751411</v>
+        <v>0.03111979344279601</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.05777459600928552</v>
+        <v>0.06011250343090878</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>30</v>
@@ -2587,19 +2587,19 @@
         <v>32778</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>22508</v>
+        <v>22465</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>45966</v>
+        <v>46683</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.02951843119520145</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.02026917854111764</v>
+        <v>0.02023086682968428</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.04139503872903871</v>
+        <v>0.04204007594738556</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>70</v>
@@ -2608,19 +2608,19 @@
         <v>77467</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>61698</v>
+        <v>61311</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>99418</v>
+        <v>97822</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.03607782270793115</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.028734019101366</v>
+        <v>0.02855346893972822</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.04630045816065399</v>
+        <v>0.04555750168415373</v>
       </c>
     </row>
     <row r="7">
@@ -2712,19 +2712,19 @@
         <v>861109</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>837061</v>
+        <v>838512</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>880504</v>
+        <v>882467</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.885692383407404</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.860958196954923</v>
+        <v>0.862449795855704</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9056404636895699</v>
+        <v>0.9076598850872395</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>873</v>
@@ -2733,19 +2733,19 @@
         <v>939614</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>918628</v>
+        <v>914829</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>959834</v>
+        <v>961764</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.8736267634509445</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.8541151069518809</v>
+        <v>0.8505829290298018</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.8924272634825184</v>
+        <v>0.8942221063550614</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1691</v>
@@ -2754,19 +2754,19 @@
         <v>1800724</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1765371</v>
+        <v>1771314</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1829082</v>
+        <v>1829970</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.8793552839013646</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.8620913143637533</v>
+        <v>0.8649935884257952</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.8932036141890136</v>
+        <v>0.8936371936954899</v>
       </c>
     </row>
     <row r="9">
@@ -2783,19 +2783,19 @@
         <v>103219</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>84723</v>
+        <v>83210</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>127074</v>
+        <v>125739</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.1061657946481683</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.08714128076110929</v>
+        <v>0.08558568518755295</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.1307016071285699</v>
+        <v>0.129328351898903</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>111</v>
@@ -2804,19 +2804,19 @@
         <v>117270</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>98766</v>
+        <v>95203</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>138149</v>
+        <v>138746</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.1090343978073882</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.09182989648796737</v>
+        <v>0.08851711780203041</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.1284468139533482</v>
+        <v>0.1290023800404438</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>204</v>
@@ -2825,19 +2825,19 @@
         <v>220489</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>195623</v>
+        <v>192234</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>253134</v>
+        <v>248640</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.1076724411138216</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.09552948701871551</v>
+        <v>0.09387430459596512</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.1236142490027897</v>
+        <v>0.1214192937814519</v>
       </c>
     </row>
     <row r="10">
@@ -2854,19 +2854,19 @@
         <v>7916</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>3913</v>
+        <v>3124</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>15033</v>
+        <v>14832</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.008141821944427792</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.004024723251677789</v>
+        <v>0.003213523297493427</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.01546184496489584</v>
+        <v>0.01525530136322686</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>17</v>
@@ -2875,19 +2875,19 @@
         <v>18648</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>11291</v>
+        <v>11445</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>28769</v>
+        <v>30559</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.01733883874166733</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.01049761661927054</v>
+        <v>0.01064098150714719</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.02674855356783797</v>
+        <v>0.02841310445704437</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>25</v>
@@ -2896,19 +2896,19 @@
         <v>26564</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>16862</v>
+        <v>17664</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>38688</v>
+        <v>38436</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.01297227498481376</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.008234121351137229</v>
+        <v>0.008626087576902241</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.01889258621026415</v>
+        <v>0.01876949617051051</v>
       </c>
     </row>
     <row r="11">
@@ -3000,19 +3000,19 @@
         <v>800126</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>780033</v>
+        <v>781885</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>815237</v>
+        <v>816572</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.909267666796164</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.8864335291205058</v>
+        <v>0.888537835511091</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.9264391875280433</v>
+        <v>0.927956601702724</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>737</v>
@@ -3021,19 +3021,19 @@
         <v>784635</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>767055</v>
+        <v>767016</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>801741</v>
+        <v>803574</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.9044499035715292</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.8841856591123416</v>
+        <v>0.8841410617918761</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.9241683340757192</v>
+        <v>0.9262811159068409</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>1484</v>
@@ -3042,19 +3042,19 @@
         <v>1584762</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>1557825</v>
+        <v>1558507</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>1607958</v>
+        <v>1608195</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.906875934460552</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.8914613381158268</v>
+        <v>0.8918516123418367</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.9201496229271102</v>
+        <v>0.9202852119448177</v>
       </c>
     </row>
     <row r="13">
@@ -3071,19 +3071,19 @@
         <v>67347</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>53250</v>
+        <v>52291</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>85452</v>
+        <v>83666</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.07653306628719034</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.06051335687788232</v>
+        <v>0.05942378394420266</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.09710831993340564</v>
+        <v>0.0950785379185219</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>65</v>
@@ -3092,19 +3092,19 @@
         <v>69421</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>53261</v>
+        <v>53013</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>85172</v>
+        <v>85880</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.08002135775553328</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.06139357135013891</v>
+        <v>0.06110769319254116</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.09817756110537568</v>
+        <v>0.09899377373435038</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>131</v>
@@ -3113,19 +3113,19 @@
         <v>136767</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>116328</v>
+        <v>115872</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>164046</v>
+        <v>162008</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.0782647951231394</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.06656813340891761</v>
+        <v>0.06630739355295248</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.09387489441789532</v>
+        <v>0.0927088812084777</v>
       </c>
     </row>
     <row r="14">
@@ -3142,19 +3142,19 @@
         <v>12495</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>6337</v>
+        <v>7019</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>21024</v>
+        <v>22505</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.01419926691664563</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.007200918807094981</v>
+        <v>0.007976359678402165</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.02389177733003886</v>
+        <v>0.02557515502166585</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>12</v>
@@ -3163,19 +3163,19 @@
         <v>13472</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>7489</v>
+        <v>6645</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>24063</v>
+        <v>22575</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.01552873867293754</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.008632582875680424</v>
+        <v>0.007659384260373267</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.02773762672839148</v>
+        <v>0.02602261542360184</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>24</v>
@@ -3184,19 +3184,19 @@
         <v>25967</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>16468</v>
+        <v>16229</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>38173</v>
+        <v>38919</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.01485927041630852</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.009423785653792862</v>
+        <v>0.009287054570696443</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.0218442259227009</v>
+        <v>0.02227105278331639</v>
       </c>
     </row>
     <row r="15">
@@ -3288,19 +3288,19 @@
         <v>452762</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>436713</v>
+        <v>437360</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>463940</v>
+        <v>464300</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.9155631887088386</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.8831092476004653</v>
+        <v>0.884417621786148</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.9381683907583475</v>
+        <v>0.9388957024618754</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>365</v>
@@ -3309,19 +3309,19 @@
         <v>401364</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>387185</v>
+        <v>384171</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>412626</v>
+        <v>412706</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.9041955817087663</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.8722516551574631</v>
+        <v>0.8654631904032312</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.9295671512095751</v>
+        <v>0.9297457968726837</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>783</v>
@@ -3330,19 +3330,19 @@
         <v>854127</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>832827</v>
+        <v>832931</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>873658</v>
+        <v>871043</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.9101860196039636</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.8874886703073775</v>
+        <v>0.8875993335742497</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.9309992553002642</v>
+        <v>0.9282128290686019</v>
       </c>
     </row>
     <row r="17">
@@ -3359,19 +3359,19 @@
         <v>29160</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>18856</v>
+        <v>19594</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>40568</v>
+        <v>41946</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.05896734960163947</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.03812990298179913</v>
+        <v>0.03962214110188283</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.08203610375929023</v>
+        <v>0.08482221736030664</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>32</v>
@@ -3380,19 +3380,19 @@
         <v>34714</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>24734</v>
+        <v>23935</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>48448</v>
+        <v>47373</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.0782043109473655</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.05572159469806573</v>
+        <v>0.05392190644425825</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.109142958819174</v>
+        <v>0.1067230323816358</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>58</v>
@@ -3401,19 +3401,19 @@
         <v>63875</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>48017</v>
+        <v>49363</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>81618</v>
+        <v>81730</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.06806692475578191</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.05116878383271266</v>
+        <v>0.0526028971135704</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.08697478258903295</v>
+        <v>0.08709379917303023</v>
       </c>
     </row>
     <row r="18">
@@ -3430,19 +3430,19 @@
         <v>12595</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>6575</v>
+        <v>6583</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>22928</v>
+        <v>23498</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.02546946168952192</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.01329680483171172</v>
+        <v>0.01331105783211454</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.04636451731833928</v>
+        <v>0.04751776187724908</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>7</v>
@@ -3451,19 +3451,19 @@
         <v>7813</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>3686</v>
+        <v>3728</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>17159</v>
+        <v>17636</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.01760010734386817</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.008303172414427689</v>
+        <v>0.008399386262990105</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.0386556118514642</v>
+        <v>0.03972960112772233</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>18</v>
@@ -3472,19 +3472,19 @@
         <v>20408</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>12799</v>
+        <v>12127</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>34035</v>
+        <v>31903</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.02174705564025452</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.01363851076096921</v>
+        <v>0.01292300364433803</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.03626919338834495</v>
+        <v>0.03399711387504448</v>
       </c>
     </row>
     <row r="19">
@@ -3576,19 +3576,19 @@
         <v>2970283</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>2927401</v>
+        <v>2929485</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>3008342</v>
+        <v>3009794</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.8778668263827928</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.8651932167401714</v>
+        <v>0.8658091761029104</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.8891153260679863</v>
+        <v>0.8895443833993321</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>2837</v>
@@ -3597,19 +3597,19 @@
         <v>3058756</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>3019093</v>
+        <v>3015468</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>3099086</v>
+        <v>3100262</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.8745842351240265</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.8632435125386329</v>
+        <v>0.8622070449877834</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.8861157109934752</v>
+        <v>0.8864519987545895</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>5623</v>
@@ -3618,19 +3618,19 @@
         <v>6029039</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>5968352</v>
+        <v>5975487</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>6087600</v>
+        <v>6083871</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.8761983716972407</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.867378808454103</v>
+        <v>0.868415773490036</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.8847090893714181</v>
+        <v>0.8841670997506006</v>
       </c>
     </row>
     <row r="21">
@@ -3647,19 +3647,19 @@
         <v>335546</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>299665</v>
+        <v>299830</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>373977</v>
+        <v>373175</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.09917047233963018</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.08856611358503617</v>
+        <v>0.08861472504031724</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.1105287799477977</v>
+        <v>0.1102917586899724</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>338</v>
@@ -3668,19 +3668,19 @@
         <v>365916</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>329081</v>
+        <v>325807</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>402953</v>
+        <v>403787</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.1046256961307426</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.09409338257535896</v>
+        <v>0.09315741012817609</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.1152156165260629</v>
+        <v>0.1154539760875265</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>651</v>
@@ -3689,19 +3689,19 @@
         <v>701462</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>651634</v>
+        <v>655273</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>756285</v>
+        <v>751281</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.1019432189222911</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.09470176490953959</v>
+        <v>0.09523070070771848</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.1099107037199668</v>
+        <v>0.1091834091009593</v>
       </c>
     </row>
     <row r="22">
@@ -3718,19 +3718,19 @@
         <v>77695</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>60189</v>
+        <v>60276</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>99807</v>
+        <v>98382</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.02296270127757702</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.01778873660192656</v>
+        <v>0.01781446597279525</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.02949795647231976</v>
+        <v>0.02907687273610911</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>66</v>
@@ -3739,19 +3739,19 @@
         <v>72711</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>56099</v>
+        <v>56296</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>90508</v>
+        <v>93651</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.02079006874523091</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.01604035490703707</v>
+        <v>0.01609673630702944</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.02587886457606389</v>
+        <v>0.02677738323630321</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>137</v>
@@ -3760,19 +3760,19 @@
         <v>150406</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>125383</v>
+        <v>124742</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>177754</v>
+        <v>175788</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.0218584093804682</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.01822184154041674</v>
+        <v>0.01812877276548943</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.02583298707245907</v>
+        <v>0.02554718817008397</v>
       </c>
     </row>
     <row r="23">
@@ -4104,19 +4104,19 @@
         <v>906685</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>881009</v>
+        <v>877799</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>931588</v>
+        <v>931655</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.8117877210788644</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.7887988353405108</v>
+        <v>0.785925282742863</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.8340840512315675</v>
+        <v>0.8341443675828701</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>962</v>
@@ -4125,19 +4125,19 @@
         <v>1020001</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>994578</v>
+        <v>987998</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>1047837</v>
+        <v>1046317</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.8172118410171004</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.7968440288096401</v>
+        <v>0.7915719930132301</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.8395141705573561</v>
+        <v>0.83829632793061</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>1821</v>
@@ -4146,19 +4146,19 @@
         <v>1926685</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>1888019</v>
+        <v>1889526</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>1967393</v>
+        <v>1964728</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.8146502860361917</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.7983012475332445</v>
+        <v>0.7989383692072466</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.8318623532720523</v>
+        <v>0.8307356413353698</v>
       </c>
     </row>
     <row r="5">
@@ -4175,19 +4175,19 @@
         <v>158122</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>136412</v>
+        <v>134765</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>182751</v>
+        <v>182951</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.1415721020160627</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.1221347268395725</v>
+        <v>0.1206598508714205</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.163623815939366</v>
+        <v>0.1638026919650344</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>166</v>
@@ -4196,19 +4196,19 @@
         <v>176016</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>152796</v>
+        <v>152281</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>201326</v>
+        <v>204277</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.1410218406051018</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.1224180386901939</v>
+        <v>0.1220052896774204</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.1612995222521184</v>
+        <v>0.1636641258034421</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>316</v>
@@ -4217,19 +4217,19 @@
         <v>334138</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>301582</v>
+        <v>301805</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>371895</v>
+        <v>369222</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.1412817030111877</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.1275163650837736</v>
+        <v>0.1276105675158264</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.157246369412719</v>
+        <v>0.1561163058243206</v>
       </c>
     </row>
     <row r="6">
@@ -4246,19 +4246,19 @@
         <v>52092</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>38869</v>
+        <v>38258</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>67374</v>
+        <v>68820</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.04664017690507295</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.03480107480228271</v>
+        <v>0.03425412856140793</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.06032221337226631</v>
+        <v>0.0616170082249984</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>50</v>
@@ -4267,19 +4267,19 @@
         <v>52131</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>39095</v>
+        <v>38438</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>67023</v>
+        <v>69298</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.04176631837779779</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.0313226787362172</v>
+        <v>0.03079631667700572</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.05369827632195082</v>
+        <v>0.05552051575094022</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>96</v>
@@ -4288,19 +4288,19 @@
         <v>104223</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>85485</v>
+        <v>84214</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>127072</v>
+        <v>124637</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.04406801095262051</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.03614538473832343</v>
+        <v>0.03560778505044152</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.05372938730964352</v>
+        <v>0.05269940788621152</v>
       </c>
     </row>
     <row r="7">
@@ -4392,19 +4392,19 @@
         <v>751165</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>726164</v>
+        <v>726937</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>771761</v>
+        <v>771060</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.8340788491442107</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.8063180632592665</v>
+        <v>0.8071767651950271</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.8569490938646829</v>
+        <v>0.856170446202898</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>783</v>
@@ -4413,19 +4413,19 @@
         <v>825744</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>798639</v>
+        <v>799771</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>849585</v>
+        <v>849944</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.8281560224544519</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.8009715346618757</v>
+        <v>0.8021063060665964</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.8520657689997536</v>
+        <v>0.852426405244498</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1515</v>
@@ -4434,19 +4434,19 @@
         <v>1576908</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1542892</v>
+        <v>1542223</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1612174</v>
+        <v>1608776</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.8309668494010779</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.8130417996250914</v>
+        <v>0.8126890105650391</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.8495505041141811</v>
+        <v>0.8477599737147132</v>
       </c>
     </row>
     <row r="9">
@@ -4463,19 +4463,19 @@
         <v>123274</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>104088</v>
+        <v>103465</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>147340</v>
+        <v>146072</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.1368805617097298</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.1155769068790677</v>
+        <v>0.114885636867016</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.1636032530638086</v>
+        <v>0.1621954184517352</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>123</v>
@@ -4484,19 +4484,19 @@
         <v>131425</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>110302</v>
+        <v>109408</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>153440</v>
+        <v>154648</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.1318093230810556</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.1106240707649586</v>
+        <v>0.1097271034616324</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.1538883731916851</v>
+        <v>0.1550995156133677</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>240</v>
@@ -4505,19 +4505,19 @@
         <v>254699</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>226051</v>
+        <v>226086</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>287395</v>
+        <v>287166</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.1342160074121868</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.1191199611899756</v>
+        <v>0.1191382310079712</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.1514456802852828</v>
+        <v>0.1513247300712644</v>
       </c>
     </row>
     <row r="10">
@@ -4534,19 +4534,19 @@
         <v>26154</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>17030</v>
+        <v>17497</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>38660</v>
+        <v>38540</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.02904058914605956</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.01890928656827619</v>
+        <v>0.01942807361179425</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.04292709701994949</v>
+        <v>0.04279405412651547</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>37</v>
@@ -4555,19 +4555,19 @@
         <v>39918</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>28235</v>
+        <v>28910</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>55292</v>
+        <v>54591</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.04003465446449256</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.02831751576555145</v>
+        <v>0.02899457526241501</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.05545398010728482</v>
+        <v>0.0547508013158105</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>61</v>
@@ -4576,19 +4576,19 @@
         <v>66072</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>51887</v>
+        <v>51061</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>83889</v>
+        <v>85630</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.03481714318673532</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.0273421656047683</v>
+        <v>0.02690683024309174</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.04420624546950639</v>
+        <v>0.04512349546435659</v>
       </c>
     </row>
     <row r="11">
@@ -4680,19 +4680,19 @@
         <v>732764</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>711896</v>
+        <v>713101</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>751851</v>
+        <v>750314</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.8906220494530811</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.8652584571591186</v>
+        <v>0.8667228410897447</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.9138208667189172</v>
+        <v>0.9119527638234523</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>640</v>
@@ -4701,19 +4701,19 @@
         <v>677510</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>658673</v>
+        <v>658729</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>694251</v>
+        <v>694570</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.884736311172882</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.8601379829315371</v>
+        <v>0.8602104791345481</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.9065976491688478</v>
+        <v>0.9070141378978965</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>1342</v>
@@ -4722,19 +4722,19 @@
         <v>1410274</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>1383637</v>
+        <v>1381180</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>1436335</v>
+        <v>1432086</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.887784738498206</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.871016444571868</v>
+        <v>0.8694698168082688</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.9041905324218248</v>
+        <v>0.9015159021133039</v>
       </c>
     </row>
     <row r="13">
@@ -4751,19 +4751,19 @@
         <v>72911</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>56205</v>
+        <v>56379</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>92835</v>
+        <v>91889</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.0886181666021426</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.06831366647506594</v>
+        <v>0.06852506021967088</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1128345032641267</v>
+        <v>0.1116847196994729</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>61</v>
@@ -4772,19 +4772,19 @@
         <v>64263</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>49330</v>
+        <v>49127</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>79606</v>
+        <v>79900</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.08391833976426723</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.064417715540936</v>
+        <v>0.06415327521351885</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1039551688162538</v>
+        <v>0.1043391089460853</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>128</v>
@@ -4793,19 +4793,19 @@
         <v>137174</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>111747</v>
+        <v>116769</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>160959</v>
+        <v>163555</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.08635254255664586</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.07034604715236421</v>
+        <v>0.07350762379676949</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1013259537304048</v>
+        <v>0.1029598433462355</v>
       </c>
     </row>
     <row r="14">
@@ -4822,19 +4822,19 @@
         <v>17080</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>10063</v>
+        <v>10404</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>26628</v>
+        <v>27176</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.02075978394477636</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.01223081034592489</v>
+        <v>0.01264579122761804</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.03236410527333255</v>
+        <v>0.03303072584532211</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>22</v>
@@ -4843,19 +4843,19 @@
         <v>24004</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>15434</v>
+        <v>14819</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>35870</v>
+        <v>35001</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.03134534906285075</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.02015483551874641</v>
+        <v>0.01935112490120234</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.04684153151322962</v>
+        <v>0.04570618798387072</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>39</v>
@@ -4864,19 +4864,19 @@
         <v>41084</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>29778</v>
+        <v>29630</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>54367</v>
+        <v>53922</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.02586271894514814</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.01874581326231169</v>
+        <v>0.01865269404044973</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.03422492397994153</v>
+        <v>0.033944385350668</v>
       </c>
     </row>
     <row r="15">
@@ -4968,19 +4968,19 @@
         <v>438634</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>422258</v>
+        <v>423295</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>453205</v>
+        <v>452725</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.8781544859080878</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.8453688909115061</v>
+        <v>0.8474467654698254</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.907326308760447</v>
+        <v>0.9063652781037542</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>382</v>
@@ -4989,19 +4989,19 @@
         <v>405678</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>386482</v>
+        <v>387223</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>422630</v>
+        <v>420780</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.8363524926769909</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.7967780714816587</v>
+        <v>0.7983055259746369</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.8713004868319471</v>
+        <v>0.8674884484624962</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>789</v>
@@ -5010,19 +5010,19 @@
         <v>844312</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>822473</v>
+        <v>817957</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>865917</v>
+        <v>865465</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.8575600100211114</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.8353790294022798</v>
+        <v>0.8307923701166272</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.8795045070969097</v>
+        <v>0.8790452203473177</v>
       </c>
     </row>
     <row r="17">
@@ -5039,19 +5039,19 @@
         <v>46669</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>33410</v>
+        <v>33001</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>60362</v>
+        <v>59562</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.09343296589119678</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.06688769683353429</v>
+        <v>0.06606935728777633</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1208456232115324</v>
+        <v>0.119244549965042</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>52</v>
@@ -5060,19 +5060,19 @@
         <v>59997</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>44955</v>
+        <v>45588</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>77192</v>
+        <v>77263</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.1236917977776161</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.09268039018745032</v>
+        <v>0.09398409459078977</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.1591401311510568</v>
+        <v>0.1592871299443329</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>97</v>
@@ -5081,19 +5081,19 @@
         <v>106667</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>88179</v>
+        <v>88395</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>126385</v>
+        <v>129897</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.1083405034386972</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.08956232588559294</v>
+        <v>0.08978232554983694</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.1283683335352082</v>
+        <v>0.1319354828619711</v>
       </c>
     </row>
     <row r="18">
@@ -5110,19 +5110,19 @@
         <v>14192</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>8108</v>
+        <v>7330</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>25469</v>
+        <v>23817</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.02841254820071542</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.0162316980415959</v>
+        <v>0.01467573296050764</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.05098957598150965</v>
+        <v>0.04768145910928341</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>17</v>
@@ -5131,19 +5131,19 @@
         <v>19381</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>11329</v>
+        <v>12266</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>31580</v>
+        <v>30571</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.03995570954539309</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.02335650643902422</v>
+        <v>0.0252871560219061</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.06510492318504701</v>
+        <v>0.06302628838970736</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>29</v>
@@ -5152,19 +5152,19 @@
         <v>33573</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>23123</v>
+        <v>23511</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>49093</v>
+        <v>47511</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.03409948654019146</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.02348617704593143</v>
+        <v>0.02387968338664708</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.04986352997947337</v>
+        <v>0.04825635967500903</v>
       </c>
     </row>
     <row r="19">
@@ -5256,19 +5256,19 @@
         <v>2829246</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>2787311</v>
+        <v>2787689</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>2870947</v>
+        <v>2873020</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.8471456757911251</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.8345890911582515</v>
+        <v>0.834702432022687</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.8596319311328432</v>
+        <v>0.8602526204160581</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>2767</v>
@@ -5277,19 +5277,19 @@
         <v>2928932</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>2883467</v>
+        <v>2881411</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>2975424</v>
+        <v>2971561</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.837779301277612</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.82477487343727</v>
+        <v>0.8241867003729879</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.8510776438631469</v>
+        <v>0.849972752163149</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>5467</v>
@@ -5298,19 +5298,19 @@
         <v>5758178</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>5696214</v>
+        <v>5691782</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>5814479</v>
+        <v>5818932</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.8423553904419984</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.8332907578598622</v>
+        <v>0.8326424613627548</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.8505915416629637</v>
+        <v>0.851242944719681</v>
       </c>
     </row>
     <row r="21">
@@ -5327,19 +5327,19 @@
         <v>400975</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>367814</v>
+        <v>362006</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>441699</v>
+        <v>439228</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.1200618905977332</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.1101324066615889</v>
+        <v>0.1083934744125074</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.1322554917140902</v>
+        <v>0.1315157507469939</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>402</v>
@@ -5348,19 +5348,19 @@
         <v>431701</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>393503</v>
+        <v>391502</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>469895</v>
+        <v>472886</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.123482067214317</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.1125559940498666</v>
+        <v>0.1119835601354673</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.1344068273259231</v>
+        <v>0.135262230344853</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>781</v>
@@ -5369,19 +5369,19 @@
         <v>832677</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>780021</v>
+        <v>775265</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>886528</v>
+        <v>890381</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.121811086288575</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.1141081488862141</v>
+        <v>0.1134123131799783</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.1296888396288612</v>
+        <v>0.1302525058690058</v>
       </c>
     </row>
     <row r="22">
@@ -5398,19 +5398,19 @@
         <v>109518</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>90946</v>
+        <v>88356</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>133738</v>
+        <v>132042</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.03279243361114174</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.02723142117614615</v>
+        <v>0.02645580549312121</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.04004448007960035</v>
+        <v>0.03953674003947068</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>126</v>
@@ -5419,19 +5419,19 @@
         <v>135433</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>113281</v>
+        <v>113287</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>159566</v>
+        <v>161494</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.03873863150807097</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.03240232376372097</v>
+        <v>0.03240399799465866</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.04564166028693462</v>
+        <v>0.04619300891740535</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>225</v>
@@ -5440,19 +5440,19 @@
         <v>244951</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>214921</v>
+        <v>216026</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>277912</v>
+        <v>276247</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.03583352326942667</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.03144050763822542</v>
+        <v>0.0316021658265605</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.04065534636431863</v>
+        <v>0.04041170109174783</v>
       </c>
     </row>
     <row r="23">
@@ -5784,19 +5784,19 @@
         <v>433196</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>415244</v>
+        <v>415419</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>447082</v>
+        <v>446244</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>0.8852486544598286</v>
+        <v>0.8852486544598287</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.8485628299173235</v>
+        <v>0.848920329697639</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.9136234820303485</v>
+        <v>0.9119123546288033</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>738</v>
@@ -5805,19 +5805,19 @@
         <v>530875</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>514729</v>
+        <v>513508</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>546487</v>
+        <v>545586</v>
       </c>
       <c r="N4" s="6" t="n">
-        <v>0.8616137936792141</v>
+        <v>0.8616137936792143</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.8354088624158063</v>
+        <v>0.8334272912260223</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.8869520278096349</v>
+        <v>0.8854899236732106</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>1135</v>
@@ -5826,19 +5826,19 @@
         <v>964072</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>940877</v>
+        <v>939845</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>986227</v>
+        <v>985778</v>
       </c>
       <c r="U4" s="6" t="n">
-        <v>0.8720758723637319</v>
+        <v>0.8720758723637317</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.8510938401399932</v>
+        <v>0.8501610806592028</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.8921163437902659</v>
+        <v>0.8917104199405481</v>
       </c>
     </row>
     <row r="5">
@@ -5855,19 +5855,19 @@
         <v>46248</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>33909</v>
+        <v>34155</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>62889</v>
+        <v>61437</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.09450996126787634</v>
+        <v>0.09450996126787635</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.0692932989168594</v>
+        <v>0.06979675744062014</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1285152870527225</v>
+        <v>0.1255475209637563</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>86</v>
@@ -5876,19 +5876,19 @@
         <v>68331</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>54271</v>
+        <v>54654</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>83919</v>
+        <v>84558</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.1109024211001236</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.08808192184345989</v>
+        <v>0.08870391173151544</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.1362018598738164</v>
+        <v>0.1372390578073482</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>129</v>
@@ -5897,19 +5897,19 @@
         <v>114580</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>92876</v>
+        <v>94370</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>135392</v>
+        <v>136555</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.1036462241548711</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.08401340582893661</v>
+        <v>0.08536441283534339</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.1224726682616643</v>
+        <v>0.1235246136335297</v>
       </c>
     </row>
     <row r="6">
@@ -5926,19 +5926,19 @@
         <v>9905</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>4582</v>
+        <v>4858</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>18992</v>
+        <v>19313</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.02024138427229496</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.009363252599224088</v>
+        <v>0.009927837085623767</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.03881100489893816</v>
+        <v>0.0394659032944473</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>25</v>
@@ -5947,19 +5947,19 @@
         <v>16934</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>11309</v>
+        <v>11302</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>25062</v>
+        <v>25090</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.02748378522066212</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.01835531461468131</v>
+        <v>0.01834296797457328</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.04067555623307507</v>
+        <v>0.04072196213518888</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>34</v>
@@ -5968,19 +5968,19 @@
         <v>26839</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>18191</v>
+        <v>18343</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>38031</v>
+        <v>38312</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.02427790348139715</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.01645545759778762</v>
+        <v>0.01659256821082357</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.03440182454853422</v>
+        <v>0.03465630285428242</v>
       </c>
     </row>
     <row r="7">
@@ -6072,19 +6072,19 @@
         <v>875011</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>852614</v>
+        <v>850521</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>893451</v>
+        <v>893244</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.9113398400160185</v>
+        <v>0.9113398400160184</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.8880127214630671</v>
+        <v>0.8858328238287987</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9305454526658886</v>
+        <v>0.930329549979485</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>1454</v>
@@ -6093,19 +6093,19 @@
         <v>1003192</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>983190</v>
+        <v>983173</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>1018870</v>
+        <v>1019503</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.9027075875779171</v>
+        <v>0.9027075875779172</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.8847090331784648</v>
+        <v>0.8846933533421096</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9168151907474752</v>
+        <v>0.9173845677189302</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>2291</v>
@@ -6114,19 +6114,19 @@
         <v>1878204</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1848080</v>
+        <v>1847232</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1903363</v>
+        <v>1904794</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.9067087146246614</v>
+        <v>0.9067087146246616</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.8921664012076812</v>
+        <v>0.8917571388209385</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9188545391540037</v>
+        <v>0.9195453311547037</v>
       </c>
     </row>
     <row r="9">
@@ -6143,19 +6143,19 @@
         <v>73303</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>56816</v>
+        <v>56834</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>94963</v>
+        <v>96922</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.07634688013641457</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.05917482511276521</v>
+        <v>0.05919327988746521</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.09890598330970841</v>
+        <v>0.1009461177426397</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>125</v>
@@ -6164,19 +6164,19 @@
         <v>94488</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>78627</v>
+        <v>78381</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>113256</v>
+        <v>111544</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.08502374362977742</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.07075161664392733</v>
+        <v>0.07053012419882194</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.1019120350072306</v>
+        <v>0.1003714977025961</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>189</v>
@@ -6185,19 +6185,19 @@
         <v>167792</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>142519</v>
+        <v>143662</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>196654</v>
+        <v>196031</v>
       </c>
       <c r="U9" s="6" t="n">
-        <v>0.0810019389556038</v>
+        <v>0.08100193895560381</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.06880137843835799</v>
+        <v>0.06935346157020847</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.09493522872593907</v>
+        <v>0.09463444443554425</v>
       </c>
     </row>
     <row r="10">
@@ -6214,19 +6214,19 @@
         <v>11822</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>5630</v>
+        <v>5285</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>25971</v>
+        <v>24435</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.012313279847567</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.005863751730934523</v>
+        <v>0.005504157483263562</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.02704962078552043</v>
+        <v>0.02544952782796194</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>20</v>
@@ -6235,19 +6235,19 @@
         <v>13634</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>8577</v>
+        <v>8708</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>20742</v>
+        <v>20981</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.01226866879230532</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.007717923270858634</v>
+        <v>0.007836166613688774</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.01866464413488801</v>
+        <v>0.01887930646250236</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>29</v>
@@ -6256,19 +6256,19 @@
         <v>25457</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>16930</v>
+        <v>17534</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>40244</v>
+        <v>39736</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.01228934641973469</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.008173164113449038</v>
+        <v>0.008464555027244438</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.01942813583948237</v>
+        <v>0.01918291892066889</v>
       </c>
     </row>
     <row r="11">
@@ -6360,19 +6360,19 @@
         <v>978449</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>960337</v>
+        <v>958068</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>993460</v>
+        <v>993689</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>0.9349916697884934</v>
+        <v>0.9349916697884935</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.9176835760311102</v>
+        <v>0.9155160797945517</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.9493362751504545</v>
+        <v>0.9495549224202176</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>1406</v>
@@ -6381,19 +6381,19 @@
         <v>968897</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>952186</v>
+        <v>951599</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>984505</v>
+        <v>983269</v>
       </c>
       <c r="N12" s="6" t="n">
-        <v>0.9273116017871977</v>
+        <v>0.9273116017871976</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.9113175665017068</v>
+        <v>0.9107563585288397</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.9422500479933174</v>
+        <v>0.9410670217842169</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>2370</v>
@@ -6402,19 +6402,19 @@
         <v>1947346</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>1920573</v>
+        <v>1923235</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>1967412</v>
+        <v>1969405</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.9311546372188104</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.9183525391689634</v>
+        <v>0.9196254981561037</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.9407493665413476</v>
+        <v>0.9417025758069818</v>
       </c>
     </row>
     <row r="13">
@@ -6431,19 +6431,19 @@
         <v>57097</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>43427</v>
+        <v>43513</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>74576</v>
+        <v>76499</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.05456102851533074</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.0414980388997326</v>
+        <v>0.04158018368133694</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.07126329957942297</v>
+        <v>0.07310104228385078</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>82</v>
@@ -6452,19 +6452,19 @@
         <v>53651</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>41359</v>
+        <v>41707</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>67110</v>
+        <v>67903</v>
       </c>
       <c r="N13" s="6" t="n">
-        <v>0.05134833224998045</v>
+        <v>0.05134833224998044</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.03958376422148917</v>
+        <v>0.03991670187065501</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.06422932309137053</v>
+        <v>0.06498880882164357</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>138</v>
@@ -6473,19 +6473,19 @@
         <v>110748</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>93195</v>
+        <v>94091</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>133975</v>
+        <v>132861</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.05295593592961821</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.0445628742107123</v>
+        <v>0.04499087665422727</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.06406209630350519</v>
+        <v>0.06352941053931901</v>
       </c>
     </row>
     <row r="14">
@@ -6502,19 +6502,19 @@
         <v>10933</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>5353</v>
+        <v>5147</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>26580</v>
+        <v>23574</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.01044730169617594</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.005115140383435355</v>
+        <v>0.004918390275670533</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.02539961265211785</v>
+        <v>0.0225267680288523</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>25</v>
@@ -6523,19 +6523,19 @@
         <v>22297</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>14397</v>
+        <v>14080</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>34538</v>
+        <v>35187</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.02134006596282195</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.01377933059903246</v>
+        <v>0.01347613029264883</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.03305548145231641</v>
+        <v>0.03367710208385326</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>34</v>
@@ -6544,19 +6544,19 @@
         <v>33230</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>23041</v>
+        <v>22359</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>50651</v>
+        <v>49006</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.01588942685157141</v>
+        <v>0.0158894268515714</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.01101749901139424</v>
+        <v>0.01069122345848496</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.02421952429914602</v>
+        <v>0.02343311875466841</v>
       </c>
     </row>
     <row r="15">
@@ -6648,19 +6648,19 @@
         <v>865483</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>843212</v>
+        <v>843599</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>885286</v>
+        <v>884811</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.8909459201018725</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.8680202551414173</v>
+        <v>0.8684182311884464</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.9113316518473462</v>
+        <v>0.9108431281850149</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>1164</v>
@@ -6669,19 +6669,19 @@
         <v>800699</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>785196</v>
+        <v>781855</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>816028</v>
+        <v>817008</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.8909477515736983</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.8736969475545076</v>
+        <v>0.8699796084584991</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.9080044435215787</v>
+        <v>0.9090947428937268</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>2001</v>
@@ -6690,19 +6690,19 @@
         <v>1666183</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>1639023</v>
+        <v>1640079</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>1692926</v>
+        <v>1692199</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.890946800231824</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.8764240674809221</v>
+        <v>0.8769883548209287</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.9052470706285232</v>
+        <v>0.9048585455468454</v>
       </c>
     </row>
     <row r="17">
@@ -6719,19 +6719,19 @@
         <v>70905</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>55888</v>
+        <v>54290</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>89534</v>
+        <v>88860</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.07299149444210741</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.0575319212184815</v>
+        <v>0.05588732214469504</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.09216819254195983</v>
+        <v>0.09147383583375983</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>105</v>
@@ -6740,19 +6740,19 @@
         <v>70620</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>57680</v>
+        <v>57024</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>85361</v>
+        <v>86134</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.07857996234434478</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.06418087302148015</v>
+        <v>0.06345092721125442</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.09498202197860547</v>
+        <v>0.0958428238464815</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>179</v>
@@ -6761,19 +6761,19 @@
         <v>141526</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>121128</v>
+        <v>121759</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>165051</v>
+        <v>163798</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.07567708202003277</v>
+        <v>0.07567708202003275</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.06477012260477417</v>
+        <v>0.06510713331992544</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.08825640953645</v>
+        <v>0.08758643172878726</v>
       </c>
     </row>
     <row r="18">
@@ -6790,19 +6790,19 @@
         <v>35032</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>24219</v>
+        <v>23449</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>50135</v>
+        <v>49413</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.03606258545602026</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.02493134852941772</v>
+        <v>0.02413899862416297</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.05160974487961113</v>
+        <v>0.05086675977518941</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>40</v>
@@ -6811,19 +6811,19 @@
         <v>27386</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>19798</v>
+        <v>20185</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>36762</v>
+        <v>37697</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.03047228608195685</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.02202918966779118</v>
+        <v>0.02246002377361633</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.0409057476937939</v>
+        <v>0.04194614861834767</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>71</v>
@@ -6832,19 +6832,19 @@
         <v>62418</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>48137</v>
+        <v>47437</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>81663</v>
+        <v>79497</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.03337611774814313</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.02574018801540951</v>
+        <v>0.0253658067164293</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.0436668442005036</v>
+        <v>0.04250863705814623</v>
       </c>
     </row>
     <row r="19">
@@ -6936,19 +6936,19 @@
         <v>3152140</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>3110224</v>
+        <v>3113459</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>3188346</v>
+        <v>3186653</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.9090823321046784</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.8969936158408913</v>
+        <v>0.8979264775563335</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9195241137033504</v>
+        <v>0.9190357559688771</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>4762</v>
@@ -6957,19 +6957,19 @@
         <v>3303663</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>3269242</v>
+        <v>3268196</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>3335104</v>
+        <v>3334035</v>
       </c>
       <c r="N20" s="6" t="n">
-        <v>0.8999342893091001</v>
+        <v>0.8999342893091002</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.8905577159991362</v>
+        <v>0.8902727693771981</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9084987669081469</v>
+        <v>0.9082077180292208</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>7797</v>
@@ -6978,19 +6978,19 @@
         <v>6455804</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>6402976</v>
+        <v>6406165</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>6506563</v>
+        <v>6505727</v>
       </c>
       <c r="U20" s="6" t="n">
-        <v>0.9043778392329804</v>
+        <v>0.9043778392329802</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.8969772928112927</v>
+        <v>0.8974240571605593</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9114886073306663</v>
+        <v>0.9113715619652719</v>
       </c>
     </row>
     <row r="21">
@@ -7007,19 +7007,19 @@
         <v>247554</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>217615</v>
+        <v>219539</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>284647</v>
+        <v>282299</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.07139507614468135</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.06276040549085822</v>
+        <v>0.06331536653350082</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.08209255142413036</v>
+        <v>0.08141539266363033</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>398</v>
@@ -7028,19 +7028,19 @@
         <v>287091</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>258620</v>
+        <v>259966</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>320037</v>
+        <v>318795</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.07820497374319306</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.0704494088626491</v>
+        <v>0.07081600731796191</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.08717953597736226</v>
+        <v>0.08684143255074199</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>635</v>
@@ -7049,19 +7049,19 @@
         <v>534645</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>492480</v>
+        <v>493045</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>578067</v>
+        <v>582331</v>
       </c>
       <c r="U21" s="6" t="n">
-        <v>0.07489714925748722</v>
+        <v>0.07489714925748721</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.06899030644637162</v>
+        <v>0.06906942924736513</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.08097997280792409</v>
+        <v>0.08157736633238941</v>
       </c>
     </row>
     <row r="22">
@@ -7078,19 +7078,19 @@
         <v>67692</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>51416</v>
+        <v>50419</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>88355</v>
+        <v>89980</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>0.01952259175064031</v>
+        <v>0.0195225917506403</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.0148284523249655</v>
+        <v>0.01454092971887408</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.02548161202948443</v>
+        <v>0.0259503404444681</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>110</v>
@@ -7099,19 +7099,19 @@
         <v>80251</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>67348</v>
+        <v>66299</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>98363</v>
+        <v>99774</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.02186073694770681</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.01834589240932226</v>
+        <v>0.01806023590861127</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.02679453160975026</v>
+        <v>0.02717894508838363</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>168</v>
@@ -7120,19 +7120,19 @@
         <v>147943</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>124943</v>
+        <v>123035</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>176468</v>
+        <v>173149</v>
       </c>
       <c r="U22" s="6" t="n">
-        <v>0.02072501150953247</v>
+        <v>0.02072501150953246</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.01750295588369626</v>
+        <v>0.01723572373071269</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.02472092225601617</v>
+        <v>0.02425607022514623</v>
       </c>
     </row>
     <row r="23">
